--- a/analysis/results/Q1_norway/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
+++ b/analysis/results/Q1_norway/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
@@ -2017,10 +2017,10 @@
         <v>1.15813204452666</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -2109,10 +2109,10 @@
         <v>-4.18893568265328</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -2201,10 +2201,10 @@
         <v>0.786037143134121</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -2293,10 +2293,10 @@
         <v>0.31504863562352</v>
       </c>
       <c r="X5" t="n">
-        <v>0.135922330097087</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.101941747572816</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -2385,10 +2385,10 @@
         <v>-0.301887616070723</v>
       </c>
       <c r="X6" t="n">
-        <v>0.12621359223301</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.116504854368932</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2477,10 +2477,10 @@
         <v>0.320697188541823</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2569,10 +2569,10 @@
         <v>-0.0864596216127058</v>
       </c>
       <c r="X8" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.199029126213592</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2661,10 +2661,10 @@
         <v>-5.72387980960185</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2753,10 +2753,10 @@
         <v>-0.527669790498573</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2845,10 +2845,10 @@
         <v>-0.71799302719172</v>
       </c>
       <c r="X11" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -2937,10 +2937,10 @@
         <v>1.00051566694027</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -3029,10 +3029,10 @@
         <v>0.305462780407828</v>
       </c>
       <c r="X13" t="n">
-        <v>0.131067961165049</v>
+        <v>0.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.12621359223301</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -3121,10 +3121,10 @@
         <v>2.38355916208118</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.135922330097087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -3213,10 +3213,10 @@
         <v>-0.864518040655748</v>
       </c>
       <c r="X15" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.203883495145631</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -3305,10 +3305,10 @@
         <v>1.79169047766479</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -3397,10 +3397,10 @@
         <v>-0.659315779010706</v>
       </c>
       <c r="X17" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3581,10 +3581,10 @@
         <v>1.16219319754431</v>
       </c>
       <c r="X19" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -3673,10 +3673,10 @@
         <v>0.36739367641424</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0631067961165049</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3765,10 +3765,10 @@
         <v>-1.6534298885342</v>
       </c>
       <c r="X21" t="n">
-        <v>0.116504854368932</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.087378640776699</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3949,10 +3949,10 @@
         <v>-1.09473769654926</v>
       </c>
       <c r="X23" t="n">
-        <v>0.155339805825243</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.160194174757282</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -4041,10 +4041,10 @@
         <v>0.976621043528598</v>
       </c>
       <c r="X24" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -4225,10 +4225,10 @@
         <v>-0.803417002316363</v>
       </c>
       <c r="X26" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.174757281553398</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -4409,10 +4409,10 @@
         <v>0.573230212884565</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4501,10 +4501,10 @@
         <v>-4.5862725657001</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4593,10 +4593,10 @@
         <v>-0.909635292093242</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4685,10 +4685,10 @@
         <v>-0.383920381343949</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4869,10 +4869,10 @@
         <v>-0.284288771012156</v>
       </c>
       <c r="X33" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.203883495145631</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -4961,10 +4961,10 @@
         <v>-0.082404380373848</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -5053,7 +5053,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.058252427184466</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -5237,10 +5237,10 @@
         <v>1.20196304876961</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -5329,10 +5329,10 @@
         <v>0.401934329132534</v>
       </c>
       <c r="X38" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.20873786407767</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -5421,10 +5421,10 @@
         <v>-1.49302912649776</v>
       </c>
       <c r="X39" t="n">
-        <v>0.131067961165049</v>
+        <v>0.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.101941747572816</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5513,10 +5513,10 @@
         <v>0.841207492926969</v>
       </c>
       <c r="X40" t="n">
-        <v>0.121359223300971</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.184466019417476</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5605,10 +5605,10 @@
         <v>0.0787363929391424</v>
       </c>
       <c r="X41" t="n">
-        <v>0.150485436893204</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.116504854368932</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5697,10 +5697,10 @@
         <v>0.945388400625456</v>
       </c>
       <c r="X42" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.213592233009709</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5789,10 +5789,10 @@
         <v>3.39929066262583</v>
       </c>
       <c r="X43" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5973,10 +5973,10 @@
         <v>-0.836317872685245</v>
       </c>
       <c r="X45" t="n">
-        <v>0.155339805825243</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.199029126213592</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -6065,10 +6065,10 @@
         <v>-0.85278846584492</v>
       </c>
       <c r="X46" t="n">
-        <v>0.121359223300971</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0631067961165049</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -6157,10 +6157,10 @@
         <v>0.829891352289824</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -6249,10 +6249,10 @@
         <v>-0.216759571982532</v>
       </c>
       <c r="X48" t="n">
-        <v>0.131067961165049</v>
+        <v>0.75</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -6341,10 +6341,10 @@
         <v>1.47119640463149</v>
       </c>
       <c r="X49" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -6433,10 +6433,10 @@
         <v>-1.29471682407975</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6525,7 +6525,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         <v>-1.43667254665432</v>
       </c>
       <c r="X52" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.116504854368932</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6709,10 +6709,10 @@
         <v>-3.53678446283385</v>
       </c>
       <c r="X53" t="n">
-        <v>0.135922330097087</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6801,10 +6801,10 @@
         <v>-0.896696827955374</v>
       </c>
       <c r="X54" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6893,10 +6893,10 @@
         <v>-2.90024403374185</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.116504854368932</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.155339805825243</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -7077,10 +7077,10 @@
         <v>-1.34369038239272</v>
       </c>
       <c r="X57" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -7169,10 +7169,10 @@
         <v>-0.146685391130548</v>
       </c>
       <c r="X58" t="n">
-        <v>0.150485436893204</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.155339805825243</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -7353,10 +7353,10 @@
         <v>-0.426197107071469</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -7445,10 +7445,10 @@
         <v>-1.36463399296563</v>
       </c>
       <c r="X61" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.184466019417476</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7537,10 +7537,10 @@
         <v>4.53700967139511</v>
       </c>
       <c r="X62" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7629,10 +7629,10 @@
         <v>-0.782646761704009</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7721,10 +7721,10 @@
         <v>0.00118145523242506</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7813,10 +7813,10 @@
         <v>2.42018010368458</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7905,10 +7905,10 @@
         <v>-1.58361574906047</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7997,10 +7997,10 @@
         <v>-0.500187992746846</v>
       </c>
       <c r="X67" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.199029126213592</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -8089,7 +8089,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X68" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
@@ -8181,10 +8181,10 @@
         <v>-1.59883492585829</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -8457,10 +8457,10 @@
         <v>1.0622394685808</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0631067961165049</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.106796116504854</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8549,10 +8549,10 @@
         <v>1.81100450993042</v>
       </c>
       <c r="X73" t="n">
-        <v>0.058252427184466</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8733,10 +8733,10 @@
         <v>-3.87415716332647</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8825,10 +8825,10 @@
         <v>-0.709937637224461</v>
       </c>
       <c r="X76" t="n">
-        <v>0.116504854368932</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.116504854368932</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8917,10 +8917,10 @@
         <v>-2.28153820737053</v>
       </c>
       <c r="X77" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.160194174757282</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -9009,10 +9009,10 @@
         <v>1.11841109660822</v>
       </c>
       <c r="X78" t="n">
-        <v>0.116504854368932</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.145631067961165</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -9101,10 +9101,10 @@
         <v>-2.5711649338818</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -9193,10 +9193,10 @@
         <v>2.11585874734296</v>
       </c>
       <c r="X80" t="n">
-        <v>0.058252427184466</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -9285,10 +9285,10 @@
         <v>-0.834506295578116</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -9377,10 +9377,10 @@
         <v>-3.95140534261819</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0631067961165049</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9469,10 +9469,10 @@
         <v>-1.75624752805185</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.25</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9561,10 +9561,10 @@
         <v>-0.511343964469807</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9653,10 +9653,10 @@
         <v>2.34977558812392</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.106796116504854</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9745,7 +9745,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X86" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
@@ -9837,10 +9837,10 @@
         <v>-1.12909529782916</v>
       </c>
       <c r="X87" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.213592233009709</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -10021,10 +10021,10 @@
         <v>-0.641187993605056</v>
       </c>
       <c r="X89" t="n">
-        <v>0.111650485436893</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -10113,10 +10113,10 @@
         <v>-1.08197512566748</v>
       </c>
       <c r="X90" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.135922330097087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -10205,10 +10205,10 @@
         <v>-2.00054753320779</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10481,10 +10481,10 @@
         <v>-0.0986647728011488</v>
       </c>
       <c r="X94" t="n">
-        <v>0.058252427184466</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z94" t="s">
         <v>215</v>
@@ -10573,10 +10573,10 @@
         <v>-1.68236172715721</v>
       </c>
       <c r="X95" t="n">
-        <v>0.155339805825243</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.121359223300971</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10757,10 +10757,10 @@
         <v>0.133664194332559</v>
       </c>
       <c r="X97" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10849,10 +10849,10 @@
         <v>-0.387284191054165</v>
       </c>
       <c r="X98" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.218446601941748</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10941,10 +10941,10 @@
         <v>1.67699401678245</v>
       </c>
       <c r="X99" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -11033,10 +11033,10 @@
         <v>-1.04391710068612</v>
       </c>
       <c r="X100" t="n">
-        <v>0.135922330097087</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -11125,10 +11125,10 @@
         <v>-1.67193067198868</v>
       </c>
       <c r="X101" t="n">
-        <v>0.111650485436893</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.058252427184466</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -11217,10 +11217,10 @@
         <v>-0.315997697230674</v>
       </c>
       <c r="X102" t="n">
-        <v>0.140776699029126</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -11309,10 +11309,10 @@
         <v>-0.587224404849314</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -11401,10 +11401,10 @@
         <v>-2.51781508382102</v>
       </c>
       <c r="X104" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11493,10 +11493,10 @@
         <v>0.261552154527644</v>
       </c>
       <c r="X105" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.179611650485437</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11585,10 +11585,10 @@
         <v>-5.49568657409019</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11677,10 +11677,10 @@
         <v>-2.21423245425872</v>
       </c>
       <c r="X107" t="n">
-        <v>0.121359223300971</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11769,10 +11769,10 @@
         <v>-0.211119937834896</v>
       </c>
       <c r="X108" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.111650485436893</v>
+        <v>0.5</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11861,10 +11861,10 @@
         <v>0.228521827117907</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11953,10 +11953,10 @@
         <v>1.84767872309446</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -12045,7 +12045,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
@@ -12137,7 +12137,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y112" t="n">
         <v>0</v>
@@ -12229,10 +12229,10 @@
         <v>2.65406709004217</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0776699029126214</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.106796116504854</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -12413,10 +12413,10 @@
         <v>-0.275864145016588</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12505,10 +12505,10 @@
         <v>-2.72287373481473</v>
       </c>
       <c r="X116" t="n">
-        <v>0.087378640776699</v>
+        <v>0.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12597,10 +12597,10 @@
         <v>0.1882799804072</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12689,10 +12689,10 @@
         <v>3.67209555870627</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12781,10 +12781,10 @@
         <v>-2.54381371687811</v>
       </c>
       <c r="X119" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z119" t="s">
         <v>265</v>
@@ -12873,10 +12873,10 @@
         <v>-0.666508791385609</v>
       </c>
       <c r="X120" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.194174757281553</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12965,10 +12965,10 @@
         <v>0.254002219810911</v>
       </c>
       <c r="X121" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.160194174757282</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -13057,10 +13057,10 @@
         <v>-2.53887824841485</v>
       </c>
       <c r="X122" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.145631067961165</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -13149,7 +13149,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y123" t="n">
         <v>0</v>
@@ -13241,10 +13241,10 @@
         <v>3.36097863691148</v>
       </c>
       <c r="X124" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -13333,10 +13333,10 @@
         <v>-1.42227556795323</v>
       </c>
       <c r="X125" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.213592233009709</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -13425,10 +13425,10 @@
         <v>1.3421493769321</v>
       </c>
       <c r="X126" t="n">
-        <v>0.131067961165049</v>
+        <v>0.75</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.184466019417476</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13517,10 +13517,10 @@
         <v>0.627351878359667</v>
       </c>
       <c r="X127" t="n">
-        <v>0.150485436893204</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.135922330097087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13609,10 +13609,10 @@
         <v>-0.912217536069037</v>
       </c>
       <c r="X128" t="n">
-        <v>0.145631067961165</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.140776699029126</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13701,10 +13701,10 @@
         <v>-0.242584179676473</v>
       </c>
       <c r="X129" t="n">
-        <v>0.145631067961165</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.12621359223301</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13793,10 +13793,10 @@
         <v>0.423179876166213</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -13885,10 +13885,10 @@
         <v>-1.98572115417523</v>
       </c>
       <c r="X131" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13977,10 +13977,10 @@
         <v>0.286135312718031</v>
       </c>
       <c r="X132" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.203883495145631</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -14069,10 +14069,10 @@
         <v>-0.931533667481041</v>
       </c>
       <c r="X133" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.169902912621359</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -14345,10 +14345,10 @@
         <v>3.59888138402567</v>
       </c>
       <c r="X136" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -14437,10 +14437,10 @@
         <v>-4.18759151826049</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14529,10 +14529,10 @@
         <v>-1.01379463036868</v>
       </c>
       <c r="X138" t="n">
-        <v>0.155339805825243</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.121359223300971</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14621,10 +14621,10 @@
         <v>0.461822227222504</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14713,10 +14713,10 @@
         <v>-3.9540600050694</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0631067961165049</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14897,10 +14897,10 @@
         <v>0.124841691801153</v>
       </c>
       <c r="X142" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.106796116504854</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Z142" t="s">
         <v>311</v>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.189320388349515</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -15081,10 +15081,10 @@
         <v>-2.50411282081414</v>
       </c>
       <c r="X144" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -15265,10 +15265,10 @@
         <v>-0.890954507703732</v>
       </c>
       <c r="X146" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.087378640776699</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -15357,10 +15357,10 @@
         <v>1.17027458442763</v>
       </c>
       <c r="X147" t="n">
-        <v>0.101941747572816</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -15449,10 +15449,10 @@
         <v>3.24832213245027</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15541,10 +15541,10 @@
         <v>-1.83166066650436</v>
       </c>
       <c r="X149" t="n">
-        <v>0.140776699029126</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15633,10 +15633,10 @@
         <v>-0.353287468733343</v>
       </c>
       <c r="X150" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.121359223300971</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Z150" t="s">
         <v>327</v>
@@ -15725,10 +15725,10 @@
         <v>2.35462329029145</v>
       </c>
       <c r="X151" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z151" t="s">
         <v>329</v>
@@ -15817,10 +15817,10 @@
         <v>-1.90626894301766</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z152" t="s">
         <v>331</v>
@@ -15909,10 +15909,10 @@
         <v>-1.61551493985901</v>
       </c>
       <c r="X153" t="n">
-        <v>0.145631067961165</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.111650485436893</v>
+        <v>0.5</v>
       </c>
       <c r="Z153" t="s">
         <v>333</v>
@@ -16001,10 +16001,10 @@
         <v>-1.11139839910766</v>
       </c>
       <c r="X154" t="n">
-        <v>0.116504854368932</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Z154" t="s">
         <v>335</v>
@@ -16093,10 +16093,10 @@
         <v>-0.490108400099142</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z155" t="s">
         <v>337</v>
@@ -16185,10 +16185,10 @@
         <v>-1.44678926062572</v>
       </c>
       <c r="X156" t="n">
-        <v>0.174757281553398</v>
+        <v>1</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.160194174757282</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Z156" t="s">
         <v>339</v>
@@ -16277,10 +16277,10 @@
         <v>-0.809846075525058</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z157" t="s">
         <v>341</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z158" t="s">
         <v>343</v>
@@ -16461,10 +16461,10 @@
         <v>-2.22885420105089</v>
       </c>
       <c r="X159" t="n">
-        <v>0.121359223300971</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.101941747572816</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z159" t="s">
         <v>345</v>
@@ -16553,10 +16553,10 @@
         <v>1.93180279020452</v>
       </c>
       <c r="X160" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z160" t="s">
         <v>347</v>
@@ -16645,10 +16645,10 @@
         <v>-2.53093177596787</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z161" t="s">
         <v>349</v>
@@ -16737,10 +16737,10 @@
         <v>-1.90497252426766</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z162" t="s">
         <v>351</v>
@@ -16829,10 +16829,10 @@
         <v>2.64545474950005</v>
       </c>
       <c r="X163" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z163" t="s">
         <v>353</v>
@@ -16921,10 +16921,10 @@
         <v>-0.439299883921603</v>
       </c>
       <c r="X164" t="n">
-        <v>0.121359223300971</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0728155339805825</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z164" t="s">
         <v>355</v>
@@ -17013,10 +17013,10 @@
         <v>-0.356103648841214</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z165" t="s">
         <v>357</v>
@@ -17105,10 +17105,10 @@
         <v>2.53628959935294</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z166" t="s">
         <v>359</v>
@@ -17197,10 +17197,10 @@
         <v>0.92246596407528</v>
       </c>
       <c r="X167" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z167" t="s">
         <v>361</v>
@@ -17289,10 +17289,10 @@
         <v>1.28130747528699</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z168" t="s">
         <v>363</v>
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z169" t="s">
         <v>365</v>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.135922330097087</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z170" t="s">
         <v>367</v>
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z171" t="s">
         <v>369</v>
@@ -17657,10 +17657,10 @@
         <v>-2.00047253899627</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z172" t="s">
         <v>371</v>
@@ -17749,10 +17749,10 @@
         <v>4.91798925644489</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.25</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.155339805825243</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z173" t="s">
         <v>373</v>
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z174" t="s">
         <v>375</v>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z175" t="s">
         <v>377</v>
@@ -18025,10 +18025,10 @@
         <v>-2.79829261322581</v>
       </c>
       <c r="X176" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z176" t="s">
         <v>379</v>
@@ -18117,10 +18117,10 @@
         <v>-0.463961606683313</v>
       </c>
       <c r="X177" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z177" t="s">
         <v>381</v>
@@ -18209,10 +18209,10 @@
         <v>-3.24704569229897</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z178" t="s">
         <v>383</v>
@@ -18301,10 +18301,10 @@
         <v>1.7678598097064</v>
       </c>
       <c r="X179" t="n">
-        <v>0.169902912621359</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.20873786407767</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="Z179" t="s">
         <v>385</v>
@@ -18393,10 +18393,10 @@
         <v>3.54363821199141</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z180" t="s">
         <v>387</v>
@@ -18485,10 +18485,10 @@
         <v>-0.467723611676105</v>
       </c>
       <c r="X181" t="n">
-        <v>0.145631067961165</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.12621359223301</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Z181" t="s">
         <v>389</v>
@@ -18577,10 +18577,10 @@
         <v>0.8617145103279</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.058252427184466</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Z182" t="s">
         <v>391</v>
@@ -18669,10 +18669,10 @@
         <v>-1.67867204960483</v>
       </c>
       <c r="X183" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z183" t="s">
         <v>393</v>
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.087378640776699</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z184" t="s">
         <v>395</v>
@@ -18853,10 +18853,10 @@
         <v>-5.76771691783415</v>
       </c>
       <c r="X185" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z185" t="s">
         <v>397</v>
@@ -18945,10 +18945,10 @@
         <v>-0.769915987761389</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z186" t="s">
         <v>399</v>
@@ -19037,10 +19037,10 @@
         <v>2.56866992070288</v>
       </c>
       <c r="X187" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.218446601941748</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="Z187" t="s">
         <v>401</v>
@@ -19129,10 +19129,10 @@
         <v>1.59706598176792</v>
       </c>
       <c r="X188" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.179611650485437</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Z188" t="s">
         <v>403</v>
@@ -19221,10 +19221,10 @@
         <v>-1.72571429054698</v>
       </c>
       <c r="X189" t="n">
-        <v>0.131067961165049</v>
+        <v>0.75</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.155339805825243</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z189" t="s">
         <v>405</v>
@@ -19313,10 +19313,10 @@
         <v>-2.04913258640884</v>
       </c>
       <c r="X190" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.0194174757281553</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z190" t="s">
         <v>407</v>
@@ -19405,10 +19405,10 @@
         <v>-3.82201792046887</v>
       </c>
       <c r="X191" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z191" t="s">
         <v>409</v>
@@ -19497,10 +19497,10 @@
         <v>-1.08434487138918</v>
       </c>
       <c r="X192" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.00970873786407767</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Z192" t="s">
         <v>411</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z193" t="s">
         <v>413</v>
@@ -19681,10 +19681,10 @@
         <v>-2.57592598354286</v>
       </c>
       <c r="X194" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.25</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.0242718446601942</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z194" t="s">
         <v>415</v>
@@ -19773,10 +19773,10 @@
         <v>0.647534509642783</v>
       </c>
       <c r="X195" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z195" t="s">
         <v>417</v>
@@ -19865,10 +19865,10 @@
         <v>0.550936424525554</v>
       </c>
       <c r="X196" t="n">
-        <v>0.0485436893203883</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.0388349514563107</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z196" t="s">
         <v>419</v>
@@ -19957,10 +19957,10 @@
         <v>-0.340028357081262</v>
       </c>
       <c r="X197" t="n">
-        <v>0.106796116504854</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.101941747572816</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z197" t="s">
         <v>421</v>
@@ -20049,10 +20049,10 @@
         <v>-3.28908720558786</v>
       </c>
       <c r="X198" t="n">
-        <v>0.0436893203883495</v>
+        <v>0.25</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z198" t="s">
         <v>423</v>
@@ -20141,10 +20141,10 @@
         <v>0.151888973707574</v>
       </c>
       <c r="X199" t="n">
-        <v>0.16504854368932</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z199" t="s">
         <v>425</v>
@@ -20233,10 +20233,10 @@
         <v>0.494607104375169</v>
       </c>
       <c r="X200" t="n">
-        <v>0.150485436893204</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.150485436893204</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z200" t="s">
         <v>427</v>
@@ -20325,10 +20325,10 @@
         <v>0.482870160708515</v>
       </c>
       <c r="X201" t="n">
-        <v>0.160194174757282</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.0922330097087379</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z201" t="s">
         <v>429</v>
@@ -20417,10 +20417,10 @@
         <v>-2.26506234723476</v>
       </c>
       <c r="X202" t="n">
-        <v>0.029126213592233</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.0145631067961165</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z202" t="s">
         <v>431</v>
@@ -20509,10 +20509,10 @@
         <v>-5.09614681695505</v>
       </c>
       <c r="X203" t="n">
-        <v>0.0533980582524272</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.00485436893203883</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z203" t="s">
         <v>433</v>
@@ -20601,10 +20601,10 @@
         <v>-3.33378422712281</v>
       </c>
       <c r="X204" t="n">
-        <v>0.0679611650485437</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.029126213592233</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z204" t="s">
         <v>435</v>
@@ -20696,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.087378640776699</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z205" t="s">
         <v>437</v>
@@ -20785,10 +20785,10 @@
         <v>1.93803612702262</v>
       </c>
       <c r="X206" t="n">
-        <v>0.116504854368932</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y206" t="n">
-        <v>0.189320388349515</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="Z206" t="s">
         <v>439</v>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="Y207" t="n">
-        <v>0.0339805825242718</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z207" t="s">
         <v>441</v>
@@ -21075,10 +21075,10 @@
         <v>-0.804259609540191</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -21167,10 +21167,10 @@
         <v>2.25605423979182</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -21259,10 +21259,10 @@
         <v>-2.71474844834759</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -21351,10 +21351,10 @@
         <v>-0.99446716528455</v>
       </c>
       <c r="X5" t="n">
-        <v>0.101449275362319</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -21443,10 +21443,10 @@
         <v>0.678741121355186</v>
       </c>
       <c r="X6" t="n">
-        <v>0.115942028985507</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -21535,10 +21535,10 @@
         <v>3.9854599714563</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -21627,10 +21627,10 @@
         <v>-0.608318128166503</v>
       </c>
       <c r="X8" t="n">
-        <v>0.198067632850242</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.135265700483092</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -21719,10 +21719,10 @@
         <v>1.62864396539994</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z9" t="s">
         <v>452</v>
@@ -21811,10 +21811,10 @@
         <v>5.65661517861967</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z10" t="s">
         <v>45</v>
@@ -21903,10 +21903,10 @@
         <v>-0.622700493978977</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
@@ -21995,10 +21995,10 @@
         <v>0.29584722383955</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z12" t="s">
         <v>49</v>
@@ -22087,10 +22087,10 @@
         <v>-0.0580341295462523</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z13" t="s">
         <v>51</v>
@@ -22179,10 +22179,10 @@
         <v>0.450830827412678</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1256038647343</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z14" t="s">
         <v>53</v>
@@ -22271,10 +22271,10 @@
         <v>0.293083574174363</v>
       </c>
       <c r="X15" t="n">
-        <v>0.135265700483092</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z15" t="s">
         <v>55</v>
@@ -22363,10 +22363,10 @@
         <v>0.00744117736367074</v>
       </c>
       <c r="X16" t="n">
-        <v>0.202898550724638</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.154589371980676</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z16" t="s">
         <v>57</v>
@@ -22455,10 +22455,10 @@
         <v>-2.45016806448473</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z17" t="s">
         <v>63</v>
@@ -22547,10 +22547,10 @@
         <v>-1.98249819168543</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z18" t="s">
         <v>65</v>
@@ -22639,10 +22639,10 @@
         <v>4.39821390144248</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.072463768115942</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z19" t="s">
         <v>67</v>
@@ -22731,10 +22731,10 @@
         <v>-1.6188364608987</v>
       </c>
       <c r="X20" t="n">
-        <v>0.072463768115942</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z20" t="s">
         <v>69</v>
@@ -22823,10 +22823,10 @@
         <v>-6.01379744058175</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z21" t="s">
         <v>71</v>
@@ -22915,10 +22915,10 @@
         <v>-0.310480281481621</v>
       </c>
       <c r="X22" t="n">
-        <v>0.159420289855072</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.115942028985507</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z22" t="s">
         <v>73</v>
@@ -23007,10 +23007,10 @@
         <v>0.271449958690999</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z23" t="s">
         <v>454</v>
@@ -23099,10 +23099,10 @@
         <v>-0.179843088953256</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -23191,10 +23191,10 @@
         <v>0.633770228126724</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -23283,10 +23283,10 @@
         <v>-0.453318160052944</v>
       </c>
       <c r="X26" t="n">
-        <v>0.173913043478261</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1256038647343</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -23375,10 +23375,10 @@
         <v>-2.6432642094378</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -23467,10 +23467,10 @@
         <v>-9.1140402755655</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -23559,10 +23559,10 @@
         <v>2.2240223816985</v>
       </c>
       <c r="X29" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z29" t="s">
         <v>456</v>
@@ -23651,10 +23651,10 @@
         <v>4.49562898523917</v>
       </c>
       <c r="X30" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z30" t="s">
         <v>85</v>
@@ -23743,10 +23743,10 @@
         <v>-1.04442248793272</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z31" t="s">
         <v>91</v>
@@ -23835,10 +23835,10 @@
         <v>-0.336263089462361</v>
       </c>
       <c r="X32" t="n">
-        <v>0.202898550724638</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.154589371980676</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z32" t="s">
         <v>93</v>
@@ -23927,10 +23927,10 @@
         <v>-2.39232260980913</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z33" t="s">
         <v>95</v>
@@ -24019,10 +24019,10 @@
         <v>2.50623453553874</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z34" t="s">
         <v>99</v>
@@ -24111,10 +24111,10 @@
         <v>-1.68955803240559</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z35" t="s">
         <v>101</v>
@@ -24203,10 +24203,10 @@
         <v>-0.333568040650363</v>
       </c>
       <c r="X36" t="n">
-        <v>0.207729468599034</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.159420289855072</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z36" t="s">
         <v>103</v>
@@ -24295,10 +24295,10 @@
         <v>-0.408340465589894</v>
       </c>
       <c r="X37" t="n">
-        <v>0.101449275362319</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z37" t="s">
         <v>105</v>
@@ -24387,10 +24387,10 @@
         <v>-1.68058365970995</v>
       </c>
       <c r="X38" t="n">
-        <v>0.183574879227053</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1256038647343</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Z38" t="s">
         <v>107</v>
@@ -24479,10 +24479,10 @@
         <v>-0.109500958451445</v>
       </c>
       <c r="X39" t="n">
-        <v>0.115942028985507</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z39" t="s">
         <v>109</v>
@@ -24571,10 +24571,10 @@
         <v>-0.624364225878027</v>
       </c>
       <c r="X40" t="n">
-        <v>0.21256038647343</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.164251207729469</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z40" t="s">
         <v>111</v>
@@ -24663,7 +24663,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -24755,10 +24755,10 @@
         <v>-6.96903808311765</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -24847,10 +24847,10 @@
         <v>0.700698341336295</v>
       </c>
       <c r="X43" t="n">
-        <v>0.198067632850242</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.14975845410628</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z43" t="s">
         <v>117</v>
@@ -24939,10 +24939,10 @@
         <v>0.835118600354079</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z44" t="s">
         <v>119</v>
@@ -25031,10 +25031,10 @@
         <v>-1.92087018757052</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z45" t="s">
         <v>121</v>
@@ -25123,10 +25123,10 @@
         <v>0.435380910763919</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -25215,10 +25215,10 @@
         <v>2.09615414238299</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z47" t="s">
         <v>125</v>
@@ -25307,10 +25307,10 @@
         <v>-1.64395790220387</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z48" t="s">
         <v>127</v>
@@ -25399,10 +25399,10 @@
         <v>6.02853530161426</v>
       </c>
       <c r="X49" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z49" t="s">
         <v>458</v>
@@ -25491,10 +25491,10 @@
         <v>0.062210257624332</v>
       </c>
       <c r="X50" t="n">
-        <v>0.115942028985507</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z50" t="s">
         <v>131</v>
@@ -25583,10 +25583,10 @@
         <v>2.7748126206904</v>
       </c>
       <c r="X51" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z51" t="s">
         <v>460</v>
@@ -25675,10 +25675,10 @@
         <v>0.58107414791556</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z52" t="s">
         <v>133</v>
@@ -25767,10 +25767,10 @@
         <v>-0.526641725113922</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z53" t="s">
         <v>135</v>
@@ -25859,10 +25859,10 @@
         <v>1.08092749005617</v>
       </c>
       <c r="X54" t="n">
-        <v>0.115942028985507</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z54" t="s">
         <v>137</v>
@@ -25951,7 +25951,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X55" t="n">
-        <v>0.154589371980676</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>-0.931768139232795</v>
       </c>
       <c r="X56" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z56" t="s">
         <v>141</v>
@@ -26135,10 +26135,10 @@
         <v>-0.601871309673573</v>
       </c>
       <c r="X57" t="n">
-        <v>0.154589371980676</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.101449275362319</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z57" t="s">
         <v>143</v>
@@ -26227,7 +26227,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
@@ -26319,10 +26319,10 @@
         <v>3.29509512743045</v>
       </c>
       <c r="X59" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z59" t="s">
         <v>462</v>
@@ -26411,10 +26411,10 @@
         <v>1.27905963508562</v>
       </c>
       <c r="X60" t="n">
-        <v>0.072463768115942</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -26503,10 +26503,10 @@
         <v>-0.172245253700242</v>
       </c>
       <c r="X61" t="n">
-        <v>0.183574879227053</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.135265700483092</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -26595,10 +26595,10 @@
         <v>-2.09041542674856</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -26687,10 +26687,10 @@
         <v>-2.08464451313465</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z63" t="s">
         <v>464</v>
@@ -26779,10 +26779,10 @@
         <v>0.389374166190592</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -26871,10 +26871,10 @@
         <v>-0.558764432018662</v>
       </c>
       <c r="X65" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -26963,10 +26963,10 @@
         <v>-1.15920127373431</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -27055,10 +27055,10 @@
         <v>0.767474069848755</v>
       </c>
       <c r="X67" t="n">
-        <v>0.198067632850242</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.154589371980676</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -27147,10 +27147,10 @@
         <v>1.12033868994369</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z68" t="s">
         <v>165</v>
@@ -27239,10 +27239,10 @@
         <v>1.27397213435783</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z69" t="s">
         <v>167</v>
@@ -27331,10 +27331,10 @@
         <v>-5.23545161594201</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z70" t="s">
         <v>169</v>
@@ -27423,10 +27423,10 @@
         <v>-0.415303849240735</v>
       </c>
       <c r="X71" t="n">
-        <v>0.106280193236715</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.5</v>
       </c>
       <c r="Z71" t="s">
         <v>171</v>
@@ -27515,10 +27515,10 @@
         <v>0.636049429747665</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z72" t="s">
         <v>173</v>
@@ -27607,10 +27607,10 @@
         <v>-2.02585095478316</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.5</v>
       </c>
       <c r="Z73" t="s">
         <v>175</v>
@@ -27699,10 +27699,10 @@
         <v>6.22035861674396</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z74" t="s">
         <v>466</v>
@@ -27791,10 +27791,10 @@
         <v>0.0830397720826833</v>
       </c>
       <c r="X75" t="n">
-        <v>0.115942028985507</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z75" t="s">
         <v>179</v>
@@ -27883,10 +27883,10 @@
         <v>-0.0983305370998309</v>
       </c>
       <c r="X76" t="n">
-        <v>0.159420289855072</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.115942028985507</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z76" t="s">
         <v>181</v>
@@ -27975,10 +27975,10 @@
         <v>1.55979838453388</v>
       </c>
       <c r="X77" t="n">
-        <v>0.144927536231884</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.144927536231884</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z77" t="s">
         <v>183</v>
@@ -28067,10 +28067,10 @@
         <v>-5.51219821802269</v>
       </c>
       <c r="X78" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z78" t="s">
         <v>187</v>
@@ -28159,10 +28159,10 @@
         <v>1.61859618002332</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z79" t="s">
         <v>189</v>
@@ -28251,7 +28251,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y80" t="n">
         <v>0</v>
@@ -28343,10 +28343,10 @@
         <v>-0.922207452458883</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z81" t="s">
         <v>195</v>
@@ -28435,10 +28435,10 @@
         <v>0.729046837123193</v>
       </c>
       <c r="X82" t="n">
-        <v>0.106280193236715</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.5</v>
       </c>
       <c r="Z82" t="s">
         <v>197</v>
@@ -28527,10 +28527,10 @@
         <v>0.105957678248907</v>
       </c>
       <c r="X83" t="n">
-        <v>0.21256038647343</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.164251207729469</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z83" t="s">
         <v>201</v>
@@ -28619,10 +28619,10 @@
         <v>-1.34936895362887</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z84" t="s">
         <v>203</v>
@@ -28711,10 +28711,10 @@
         <v>-1.76520035493855</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z85" t="s">
         <v>205</v>
@@ -28803,10 +28803,10 @@
         <v>0.723800596766622</v>
       </c>
       <c r="X86" t="n">
-        <v>0.135265700483092</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z86" t="s">
         <v>207</v>
@@ -28895,10 +28895,10 @@
         <v>-1.36422643717166</v>
       </c>
       <c r="X87" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z87" t="s">
         <v>209</v>
@@ -28987,7 +28987,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
@@ -29079,7 +29079,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X89" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -29171,10 +29171,10 @@
         <v>0.309857639959183</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z90" t="s">
         <v>215</v>
@@ -29263,10 +29263,10 @@
         <v>0.796196747074072</v>
       </c>
       <c r="X91" t="n">
-        <v>0.120772946859903</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z91" t="s">
         <v>217</v>
@@ -29355,10 +29355,10 @@
         <v>3.91903578537392</v>
       </c>
       <c r="X92" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z92" t="s">
         <v>468</v>
@@ -29447,10 +29447,10 @@
         <v>-1.58315693765135</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z93" t="s">
         <v>219</v>
@@ -29539,10 +29539,10 @@
         <v>0.576946677100989</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z94" t="s">
         <v>221</v>
@@ -29631,10 +29631,10 @@
         <v>-0.405176085913374</v>
       </c>
       <c r="X95" t="n">
-        <v>0.217391304347826</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.159420289855072</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z95" t="s">
         <v>223</v>
@@ -29723,10 +29723,10 @@
         <v>0.54855169960055</v>
       </c>
       <c r="X96" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z96" t="s">
         <v>225</v>
@@ -29815,10 +29815,10 @@
         <v>0.350693275013574</v>
       </c>
       <c r="X97" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z97" t="s">
         <v>227</v>
@@ -29907,10 +29907,10 @@
         <v>-0.305774105578037</v>
       </c>
       <c r="X98" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z98" t="s">
         <v>229</v>
@@ -29999,10 +29999,10 @@
         <v>0.34223296559253</v>
       </c>
       <c r="X99" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.130434782608696</v>
+        <v>0.75</v>
       </c>
       <c r="Z99" t="s">
         <v>231</v>
@@ -30094,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z100" t="s">
         <v>470</v>
@@ -30183,10 +30183,10 @@
         <v>2.87183858370388</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z101" t="s">
         <v>233</v>
@@ -30275,10 +30275,10 @@
         <v>-0.761421899714209</v>
       </c>
       <c r="X102" t="n">
-        <v>0.178743961352657</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.14975845410628</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z102" t="s">
         <v>237</v>
@@ -30367,10 +30367,10 @@
         <v>4.78328373470755</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z103" t="s">
         <v>239</v>
@@ -30459,10 +30459,10 @@
         <v>0.609526397744328</v>
       </c>
       <c r="X104" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z104" t="s">
         <v>241</v>
@@ -30551,10 +30551,10 @@
         <v>-0.210043893637849</v>
       </c>
       <c r="X105" t="n">
-        <v>0.111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z105" t="s">
         <v>243</v>
@@ -30643,10 +30643,10 @@
         <v>-1.02389977318634</v>
       </c>
       <c r="X106" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z106" t="s">
         <v>245</v>
@@ -30735,10 +30735,10 @@
         <v>-0.202730294436466</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z107" t="s">
         <v>247</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z108" t="s">
         <v>251</v>
@@ -30919,10 +30919,10 @@
         <v>-0.280995544977973</v>
       </c>
       <c r="X109" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.115942028985507</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z109" t="s">
         <v>253</v>
@@ -31011,10 +31011,10 @@
         <v>3.15575224194073</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z110" t="s">
         <v>472</v>
@@ -31103,7 +31103,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X111" t="n">
-        <v>0.106280193236715</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
@@ -31195,10 +31195,10 @@
         <v>-0.265825496336737</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z112" t="s">
         <v>474</v>
@@ -31287,10 +31287,10 @@
         <v>-5.79910609399909</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z113" t="s">
         <v>257</v>
@@ -31379,10 +31379,10 @@
         <v>1.57068865332896</v>
       </c>
       <c r="X114" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z114" t="s">
         <v>259</v>
@@ -31471,7 +31471,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y115" t="n">
         <v>0</v>
@@ -31563,10 +31563,10 @@
         <v>2.22547489076377</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.111111111111111</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z116" t="s">
         <v>263</v>
@@ -31655,10 +31655,10 @@
         <v>0.53938468669336</v>
       </c>
       <c r="X117" t="n">
-        <v>0.193236714975845</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.154589371980676</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z117" t="s">
         <v>267</v>
@@ -31747,10 +31747,10 @@
         <v>1.09034491915999</v>
       </c>
       <c r="X118" t="n">
-        <v>0.159420289855072</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z118" t="s">
         <v>269</v>
@@ -31839,10 +31839,10 @@
         <v>1.39954310365729</v>
       </c>
       <c r="X119" t="n">
-        <v>0.144927536231884</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z119" t="s">
         <v>271</v>
@@ -31931,10 +31931,10 @@
         <v>3.14903650126283</v>
       </c>
       <c r="X120" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z120" t="s">
         <v>476</v>
@@ -32023,10 +32023,10 @@
         <v>-1.36778571754159</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z121" t="s">
         <v>275</v>
@@ -32115,10 +32115,10 @@
         <v>-1.47580180305576</v>
       </c>
       <c r="X122" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z122" t="s">
         <v>478</v>
@@ -32207,10 +32207,10 @@
         <v>0.804503266799716</v>
       </c>
       <c r="X123" t="n">
-        <v>0.21256038647343</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.164251207729469</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z123" t="s">
         <v>277</v>
@@ -32299,10 +32299,10 @@
         <v>0.762693479752399</v>
       </c>
       <c r="X124" t="n">
-        <v>0.183574879227053</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.144927536231884</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z124" t="s">
         <v>279</v>
@@ -32391,10 +32391,10 @@
         <v>-0.183011804902378</v>
       </c>
       <c r="X125" t="n">
-        <v>0.135265700483092</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.111111111111111</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z125" t="s">
         <v>281</v>
@@ -32483,10 +32483,10 @@
         <v>0.190604794526703</v>
       </c>
       <c r="X126" t="n">
-        <v>0.140096618357488</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.115942028985507</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z126" t="s">
         <v>283</v>
@@ -32575,10 +32575,10 @@
         <v>-0.371486539307881</v>
       </c>
       <c r="X127" t="n">
-        <v>0.1256038647343</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.5</v>
       </c>
       <c r="Z127" t="s">
         <v>285</v>
@@ -32667,10 +32667,10 @@
         <v>-2.77335391837919</v>
       </c>
       <c r="X128" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z128" t="s">
         <v>287</v>
@@ -32759,10 +32759,10 @@
         <v>2.49420783961602</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z129" t="s">
         <v>289</v>
@@ -32851,10 +32851,10 @@
         <v>-0.0000875816650548857</v>
       </c>
       <c r="X130" t="n">
-        <v>0.202898550724638</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.130434782608696</v>
+        <v>0.75</v>
       </c>
       <c r="Z130" t="s">
         <v>291</v>
@@ -32943,10 +32943,10 @@
         <v>-1.41016896904848</v>
       </c>
       <c r="X131" t="n">
-        <v>0.169082125603865</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.5</v>
       </c>
       <c r="Z131" t="s">
         <v>293</v>
@@ -33035,10 +33035,10 @@
         <v>-7.66998102289786</v>
       </c>
       <c r="X132" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z132" t="s">
         <v>480</v>
@@ -33127,10 +33127,10 @@
         <v>-3.03379089243864</v>
       </c>
       <c r="X133" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z133" t="s">
         <v>482</v>
@@ -33219,10 +33219,10 @@
         <v>-3.0820498724946</v>
       </c>
       <c r="X134" t="n">
-        <v>0.0676328502415459</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -33311,10 +33311,10 @@
         <v>-2.41700439472276</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z135" t="s">
         <v>484</v>
@@ -33403,10 +33403,10 @@
         <v>2.81993620774159</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z136" t="s">
         <v>297</v>
@@ -33495,10 +33495,10 @@
         <v>-3.48105402071607</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z137" t="s">
         <v>299</v>
@@ -33587,10 +33587,10 @@
         <v>1.6744945265282</v>
       </c>
       <c r="X138" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z138" t="s">
         <v>301</v>
@@ -33679,10 +33679,10 @@
         <v>0.532373355346139</v>
       </c>
       <c r="X139" t="n">
-        <v>0.120772946859903</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z139" t="s">
         <v>303</v>
@@ -33774,7 +33774,7 @@
         <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z140" t="s">
         <v>486</v>
@@ -33863,10 +33863,10 @@
         <v>2.86321243713507</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z141" t="s">
         <v>305</v>
@@ -33955,10 +33955,10 @@
         <v>1.96938039501264</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z142" t="s">
         <v>307</v>
@@ -34050,7 +34050,7 @@
         <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z143" t="s">
         <v>488</v>
@@ -34142,7 +34142,7 @@
         <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z144" t="s">
         <v>490</v>
@@ -34231,7 +34231,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y145" t="n">
         <v>0</v>
@@ -34326,7 +34326,7 @@
         <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z146" t="s">
         <v>492</v>
@@ -34415,10 +34415,10 @@
         <v>0.96480908325348</v>
       </c>
       <c r="X147" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z147" t="s">
         <v>494</v>
@@ -34507,10 +34507,10 @@
         <v>-0.355090650628941</v>
       </c>
       <c r="X148" t="n">
-        <v>0.106280193236715</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z148" t="s">
         <v>311</v>
@@ -34599,7 +34599,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X149" t="n">
-        <v>0.188405797101449</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="Y149" t="n">
         <v>0</v>
@@ -34691,10 +34691,10 @@
         <v>2.38750375409466</v>
       </c>
       <c r="X150" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z150" t="s">
         <v>315</v>
@@ -34783,7 +34783,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X151" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y151" t="n">
         <v>0</v>
@@ -34875,10 +34875,10 @@
         <v>0.282572340200094</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Z152" t="s">
         <v>319</v>
@@ -34967,10 +34967,10 @@
         <v>-0.303379910339904</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0772946859903382</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Z153" t="s">
         <v>321</v>
@@ -35059,10 +35059,10 @@
         <v>-2.58918137742196</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z154" t="s">
         <v>323</v>
@@ -35151,10 +35151,10 @@
         <v>-0.732553940277817</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.25</v>
       </c>
       <c r="Z155" t="s">
         <v>325</v>
@@ -35243,10 +35243,10 @@
         <v>6.83915375370819</v>
       </c>
       <c r="X156" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z156" t="s">
         <v>496</v>
@@ -35335,10 +35335,10 @@
         <v>-1.58359247543711</v>
       </c>
       <c r="X157" t="n">
-        <v>0.120772946859903</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z157" t="s">
         <v>327</v>
@@ -35427,10 +35427,10 @@
         <v>-2.58858043464268</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z158" t="s">
         <v>329</v>
@@ -35519,10 +35519,10 @@
         <v>1.4364725968753</v>
       </c>
       <c r="X159" t="n">
-        <v>0.111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.111111111111111</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z159" t="s">
         <v>333</v>
@@ -35611,10 +35611,10 @@
         <v>0.0685347864843587</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0966183574879227</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z160" t="s">
         <v>335</v>
@@ -35703,10 +35703,10 @@
         <v>1.37757159264438</v>
       </c>
       <c r="X161" t="n">
-        <v>0.159420289855072</v>
+        <v>0.717391304347826</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.106280193236715</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z161" t="s">
         <v>339</v>
@@ -35795,10 +35795,10 @@
         <v>0.0708405666644033</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z162" t="s">
         <v>341</v>
@@ -35887,10 +35887,10 @@
         <v>1.44877621807836</v>
       </c>
       <c r="X163" t="n">
-        <v>0.072463768115942</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z163" t="s">
         <v>343</v>
@@ -35979,10 +35979,10 @@
         <v>0.510134799026469</v>
       </c>
       <c r="X164" t="n">
-        <v>0.101449275362319</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z164" t="s">
         <v>345</v>
@@ -36071,10 +36071,10 @@
         <v>0.730189365957798</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z165" t="s">
         <v>347</v>
@@ -36163,10 +36163,10 @@
         <v>2.5582419801292</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z166" t="s">
         <v>349</v>
@@ -36255,10 +36255,10 @@
         <v>-2.35137282656468</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z167" t="s">
         <v>353</v>
@@ -36347,10 +36347,10 @@
         <v>-0.554878258678116</v>
       </c>
       <c r="X168" t="n">
-        <v>0.072463768115942</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0483091787439614</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z168" t="s">
         <v>355</v>
@@ -36439,10 +36439,10 @@
         <v>0.267554124491118</v>
       </c>
       <c r="X169" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z169" t="s">
         <v>357</v>
@@ -36531,10 +36531,10 @@
         <v>6.39109180845251</v>
       </c>
       <c r="X170" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z170" t="s">
         <v>498</v>
@@ -36623,10 +36623,10 @@
         <v>1.2700919986718</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z171" t="s">
         <v>359</v>
@@ -36715,10 +36715,10 @@
         <v>1.12887764092692</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z172" t="s">
         <v>361</v>
@@ -36807,10 +36807,10 @@
         <v>-7.74945808084873</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z173" t="s">
         <v>365</v>
@@ -36899,7 +36899,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X174" t="n">
-        <v>0.135265700483092</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Y174" t="n">
         <v>0</v>
@@ -36991,7 +36991,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y175" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>-0.719434170006655</v>
       </c>
       <c r="X176" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z176" t="s">
         <v>371</v>
@@ -37175,10 +37175,10 @@
         <v>-2.79623216308889</v>
       </c>
       <c r="X177" t="n">
-        <v>0.154589371980676</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z177" t="s">
         <v>373</v>
@@ -37267,10 +37267,10 @@
         <v>0.682337542430256</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z178" t="s">
         <v>375</v>
@@ -37359,10 +37359,10 @@
         <v>-4.20305620870627</v>
       </c>
       <c r="X179" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z179" t="s">
         <v>377</v>
@@ -37451,10 +37451,10 @@
         <v>-2.33223783310905</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z180" t="s">
         <v>383</v>
@@ -37543,10 +37543,10 @@
         <v>0.0553835420120479</v>
       </c>
       <c r="X181" t="n">
-        <v>0.207729468599034</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.164251207729469</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z181" t="s">
         <v>385</v>
@@ -37635,10 +37635,10 @@
         <v>-1.91280305715657</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z182" t="s">
         <v>387</v>
@@ -37727,10 +37727,10 @@
         <v>0.125981928668148</v>
       </c>
       <c r="X183" t="n">
-        <v>0.1256038647343</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z183" t="s">
         <v>389</v>
@@ -37819,10 +37819,10 @@
         <v>2.68180830427877</v>
       </c>
       <c r="X184" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z184" t="s">
         <v>500</v>
@@ -37911,10 +37911,10 @@
         <v>-0.0925066910596843</v>
       </c>
       <c r="X185" t="n">
-        <v>0.0579710144927536</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.072463768115942</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z185" t="s">
         <v>391</v>
@@ -38003,10 +38003,10 @@
         <v>-0.321866486637178</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z186" t="s">
         <v>393</v>
@@ -38095,7 +38095,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X187" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y187" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>-1.94420123965386</v>
       </c>
       <c r="X188" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z188" t="s">
         <v>399</v>
@@ -38279,10 +38279,10 @@
         <v>3.30790651360222</v>
       </c>
       <c r="X189" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z189" t="s">
         <v>502</v>
@@ -38371,10 +38371,10 @@
         <v>0.0522793755308302</v>
       </c>
       <c r="X190" t="n">
-        <v>0.217391304347826</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.164251207729469</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z190" t="s">
         <v>401</v>
@@ -38463,10 +38463,10 @@
         <v>0.39270053484754</v>
       </c>
       <c r="X191" t="n">
-        <v>0.178743961352657</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.140096618357488</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Z191" t="s">
         <v>403</v>
@@ -38555,10 +38555,10 @@
         <v>-0.306852713493088</v>
       </c>
       <c r="X192" t="n">
-        <v>0.154589371980676</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.111111111111111</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z192" t="s">
         <v>405</v>
@@ -38647,10 +38647,10 @@
         <v>-3.11723687323873</v>
       </c>
       <c r="X193" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z193" t="s">
         <v>407</v>
@@ -38739,10 +38739,10 @@
         <v>-3.93481188572467</v>
       </c>
       <c r="X194" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z194" t="s">
         <v>409</v>
@@ -38831,7 +38831,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X195" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y195" t="n">
         <v>0</v>
@@ -38923,10 +38923,10 @@
         <v>-3.67557982817526</v>
       </c>
       <c r="X196" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.0193236714975845</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z196" t="s">
         <v>415</v>
@@ -39015,10 +39015,10 @@
         <v>-0.380780951675004</v>
       </c>
       <c r="X197" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.0531400966183575</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z197" t="s">
         <v>417</v>
@@ -39107,10 +39107,10 @@
         <v>-2.30503973267649</v>
       </c>
       <c r="X198" t="n">
-        <v>0.0386473429951691</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z198" t="s">
         <v>419</v>
@@ -39199,10 +39199,10 @@
         <v>0.320141921462001</v>
       </c>
       <c r="X199" t="n">
-        <v>0.101449275362319</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.0821256038647343</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z199" t="s">
         <v>421</v>
@@ -39291,10 +39291,10 @@
         <v>2.98525367600566</v>
       </c>
       <c r="X200" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z200" t="s">
         <v>423</v>
@@ -39383,10 +39383,10 @@
         <v>-0.0192307406410413</v>
       </c>
       <c r="X201" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z201" t="s">
         <v>425</v>
@@ -39475,10 +39475,10 @@
         <v>-0.193489602573585</v>
       </c>
       <c r="X202" t="n">
-        <v>0.14975845410628</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.120772946859903</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Z202" t="s">
         <v>427</v>
@@ -39567,10 +39567,10 @@
         <v>-2.05014701432254</v>
       </c>
       <c r="X203" t="n">
-        <v>0.0917874396135266</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.072463768115942</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z203" t="s">
         <v>429</v>
@@ -39659,10 +39659,10 @@
         <v>2.28687885400518</v>
       </c>
       <c r="X204" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z204" t="s">
         <v>433</v>
@@ -39751,10 +39751,10 @@
         <v>1.48261426316307</v>
       </c>
       <c r="X205" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.0241545893719807</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z205" t="s">
         <v>435</v>
@@ -39843,7 +39843,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X206" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y206" t="n">
         <v>0</v>
@@ -39935,10 +39935,10 @@
         <v>0.333278099729089</v>
       </c>
       <c r="X207" t="n">
-        <v>0.188405797101449</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="Y207" t="n">
-        <v>0.14975845410628</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z207" t="s">
         <v>439</v>
@@ -40027,10 +40027,10 @@
         <v>-0.504095816205672</v>
       </c>
       <c r="X208" t="n">
-        <v>0.0338164251207729</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Y208" t="n">
-        <v>0.00483091787439614</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z208" t="s">
         <v>441</v>
@@ -40225,10 +40225,10 @@
         <v>0.354002619452004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -40317,10 +40317,10 @@
         <v>-1.9319369320464</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -40409,10 +40409,10 @@
         <v>-1.930305730535</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -40501,10 +40501,10 @@
         <v>-0.683933920327672</v>
       </c>
       <c r="X5" t="n">
-        <v>0.137254901960784</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -40593,10 +40593,10 @@
         <v>0.380760097623092</v>
       </c>
       <c r="X6" t="n">
-        <v>0.127450980392157</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -40685,10 +40685,10 @@
         <v>4.3095450900894</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -40777,10 +40777,10 @@
         <v>-0.677390972727089</v>
       </c>
       <c r="X8" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.137254901960784</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -40869,10 +40869,10 @@
         <v>0.184086548499396</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z9" t="s">
         <v>452</v>
@@ -40961,10 +40961,10 @@
         <v>-0.0676073816816346</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z10" t="s">
         <v>45</v>
@@ -41053,10 +41053,10 @@
         <v>-1.14907971835021</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
@@ -41145,10 +41145,10 @@
         <v>-0.423533139248126</v>
       </c>
       <c r="X12" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z12" t="s">
         <v>49</v>
@@ -41237,10 +41237,10 @@
         <v>1.04916079117401</v>
       </c>
       <c r="X13" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z13" t="s">
         <v>51</v>
@@ -41329,10 +41329,10 @@
         <v>0.770959727872332</v>
       </c>
       <c r="X14" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z14" t="s">
         <v>53</v>
@@ -41421,10 +41421,10 @@
         <v>2.67775968666985</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z15" t="s">
         <v>55</v>
@@ -41513,10 +41513,10 @@
         <v>-0.841954788393607</v>
       </c>
       <c r="X16" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z16" t="s">
         <v>57</v>
@@ -41605,10 +41605,10 @@
         <v>-1.26775116601649</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z17" t="s">
         <v>59</v>
@@ -41697,7 +41697,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z19" t="s">
         <v>63</v>
@@ -41881,10 +41881,10 @@
         <v>-0.823093187707702</v>
       </c>
       <c r="X20" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z20" t="s">
         <v>65</v>
@@ -41973,10 +41973,10 @@
         <v>4.78894708851814</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z21" t="s">
         <v>67</v>
@@ -42065,10 +42065,10 @@
         <v>-3.2731859111274</v>
       </c>
       <c r="X22" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z22" t="s">
         <v>69</v>
@@ -42157,10 +42157,10 @@
         <v>-1.38017615163286</v>
       </c>
       <c r="X23" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -42252,7 +42252,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z24" t="s">
         <v>454</v>
@@ -42341,10 +42341,10 @@
         <v>0.79399396226139</v>
       </c>
       <c r="X25" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z25" t="s">
         <v>75</v>
@@ -42433,10 +42433,10 @@
         <v>-1.20687220863831</v>
       </c>
       <c r="X26" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.127450980392157</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -42525,10 +42525,10 @@
         <v>-8.52932271366181</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z27" t="s">
         <v>83</v>
@@ -42620,7 +42620,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z28" t="s">
         <v>456</v>
@@ -42709,10 +42709,10 @@
         <v>-0.0993657404569389</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -42801,7 +42801,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -42893,7 +42893,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -42988,7 +42988,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -43077,10 +43077,10 @@
         <v>-0.616829330763485</v>
       </c>
       <c r="X33" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -43169,10 +43169,10 @@
         <v>-2.47760937825324</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -43261,7 +43261,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -43356,7 +43356,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -43445,10 +43445,10 @@
         <v>-0.477604120127235</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -43537,10 +43537,10 @@
         <v>0.0820757781040907</v>
       </c>
       <c r="X38" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -43629,10 +43629,10 @@
         <v>-1.8657371320781</v>
       </c>
       <c r="X39" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -43721,10 +43721,10 @@
         <v>-0.804223293728555</v>
       </c>
       <c r="X40" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.127450980392157</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -43813,10 +43813,10 @@
         <v>0.0347971257465659</v>
       </c>
       <c r="X41" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -43905,10 +43905,10 @@
         <v>0.340024160393844</v>
       </c>
       <c r="X42" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -43997,10 +43997,10 @@
         <v>-0.12812777867485</v>
       </c>
       <c r="X43" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z43" t="s">
         <v>117</v>
@@ -44089,10 +44089,10 @@
         <v>-0.00658011847578712</v>
       </c>
       <c r="X44" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z44" t="s">
         <v>119</v>
@@ -44181,10 +44181,10 @@
         <v>-1.0940532806844</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z45" t="s">
         <v>121</v>
@@ -44273,10 +44273,10 @@
         <v>0.231008973439219</v>
       </c>
       <c r="X46" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -44365,10 +44365,10 @@
         <v>3.56711595388793</v>
       </c>
       <c r="X47" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z47" t="s">
         <v>125</v>
@@ -44457,10 +44457,10 @@
         <v>-2.93275147111863</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z48" t="s">
         <v>127</v>
@@ -44549,10 +44549,10 @@
         <v>0.879245955037737</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z49" t="s">
         <v>129</v>
@@ -44641,10 +44641,10 @@
         <v>5.4198158102179</v>
       </c>
       <c r="X50" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z50" t="s">
         <v>458</v>
@@ -44733,10 +44733,10 @@
         <v>-1.36781806974546</v>
       </c>
       <c r="X51" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z51" t="s">
         <v>131</v>
@@ -44828,7 +44828,7 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z52" t="s">
         <v>460</v>
@@ -44917,10 +44917,10 @@
         <v>-2.93345224382102</v>
       </c>
       <c r="X53" t="n">
-        <v>0.137254901960784</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -45009,10 +45009,10 @@
         <v>-1.41708044263821</v>
       </c>
       <c r="X54" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -45101,10 +45101,10 @@
         <v>-1.82160258328385</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0931372549019608</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -45193,10 +45193,10 @@
         <v>-2.22281167855518</v>
       </c>
       <c r="X56" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z56" t="s">
         <v>141</v>
@@ -45285,10 +45285,10 @@
         <v>-0.736027770849115</v>
       </c>
       <c r="X57" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.102941176470588</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z57" t="s">
         <v>143</v>
@@ -45377,10 +45377,10 @@
         <v>0.631888319934487</v>
       </c>
       <c r="X58" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z58" t="s">
         <v>462</v>
@@ -45469,10 +45469,10 @@
         <v>0.869234046914993</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z59" t="s">
         <v>147</v>
@@ -45561,10 +45561,10 @@
         <v>-1.49205919299847</v>
       </c>
       <c r="X60" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.137254901960784</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Z60" t="s">
         <v>149</v>
@@ -45653,10 +45653,10 @@
         <v>2.41248891909768</v>
       </c>
       <c r="X61" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z61" t="s">
         <v>151</v>
@@ -45748,7 +45748,7 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z62" t="s">
         <v>464</v>
@@ -45837,7 +45837,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -45929,10 +45929,10 @@
         <v>0.398528447897591</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -46021,10 +46021,10 @@
         <v>1.94750752088385</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -46113,10 +46113,10 @@
         <v>-2.73713342683125</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -46205,10 +46205,10 @@
         <v>0.284285234665864</v>
       </c>
       <c r="X67" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -46297,7 +46297,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X68" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
@@ -46389,10 +46389,10 @@
         <v>-0.486156530390137</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -46484,7 +46484,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -46573,10 +46573,10 @@
         <v>0.65395460453064</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Z71" t="s">
         <v>171</v>
@@ -46665,10 +46665,10 @@
         <v>2.45196964294014</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z72" t="s">
         <v>173</v>
@@ -46760,7 +46760,7 @@
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Z73" t="s">
         <v>175</v>
@@ -46849,10 +46849,10 @@
         <v>-1.21777402282297</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z74" t="s">
         <v>177</v>
@@ -46941,10 +46941,10 @@
         <v>7.20061107117824</v>
       </c>
       <c r="X75" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z75" t="s">
         <v>466</v>
@@ -47033,10 +47033,10 @@
         <v>-0.626261693719778</v>
       </c>
       <c r="X76" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -47125,10 +47125,10 @@
         <v>-2.39224288636312</v>
       </c>
       <c r="X77" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -47217,10 +47217,10 @@
         <v>2.67398096633076</v>
       </c>
       <c r="X78" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -47309,7 +47309,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y79" t="n">
         <v>0</v>
@@ -47401,10 +47401,10 @@
         <v>-3.41938371959602</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -47493,10 +47493,10 @@
         <v>0.790250529180502</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -47585,7 +47585,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -47677,10 +47677,10 @@
         <v>1.37264469086305</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -47769,10 +47769,10 @@
         <v>-1.43376144696101</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -47861,10 +47861,10 @@
         <v>3.07736212418966</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -47953,10 +47953,10 @@
         <v>-2.60553879933725</v>
       </c>
       <c r="X86" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -48045,10 +48045,10 @@
         <v>-1.01183201983128</v>
       </c>
       <c r="X87" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -48137,10 +48137,10 @@
         <v>-2.40424432963587</v>
       </c>
       <c r="X88" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z88" t="s">
         <v>205</v>
@@ -48229,10 +48229,10 @@
         <v>-0.352508382094623</v>
       </c>
       <c r="X89" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z89" t="s">
         <v>207</v>
@@ -48321,10 +48321,10 @@
         <v>-3.36487132099711</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z90" t="s">
         <v>209</v>
@@ -48413,10 +48413,10 @@
         <v>0.213384272469902</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z91" t="s">
         <v>215</v>
@@ -48505,10 +48505,10 @@
         <v>-0.882655263716659</v>
       </c>
       <c r="X92" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z92" t="s">
         <v>217</v>
@@ -48600,7 +48600,7 @@
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z93" t="s">
         <v>468</v>
@@ -48689,10 +48689,10 @@
         <v>-0.777359232100624</v>
       </c>
       <c r="X94" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z94" t="s">
         <v>223</v>
@@ -48781,10 +48781,10 @@
         <v>2.22220101206987</v>
       </c>
       <c r="X95" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z95" t="s">
         <v>225</v>
@@ -48873,10 +48873,10 @@
         <v>-0.551340507633528</v>
       </c>
       <c r="X96" t="n">
-        <v>0.137254901960784</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z96" t="s">
         <v>227</v>
@@ -48965,10 +48965,10 @@
         <v>-1.96409340698726</v>
       </c>
       <c r="X97" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z97" t="s">
         <v>229</v>
@@ -49057,10 +49057,10 @@
         <v>0.0328789240202231</v>
       </c>
       <c r="X98" t="n">
-        <v>0.142156862745098</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Z98" t="s">
         <v>231</v>
@@ -49152,7 +49152,7 @@
         <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z99" t="s">
         <v>470</v>
@@ -49241,10 +49241,10 @@
         <v>2.29615530710936</v>
       </c>
       <c r="X100" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z100" t="s">
         <v>233</v>
@@ -49333,10 +49333,10 @@
         <v>-2.38143495622273</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z101" t="s">
         <v>235</v>
@@ -49425,10 +49425,10 @@
         <v>-0.493695504404688</v>
       </c>
       <c r="X102" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z102" t="s">
         <v>237</v>
@@ -49517,10 +49517,10 @@
         <v>-0.706137915952808</v>
       </c>
       <c r="X103" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z103" t="s">
         <v>239</v>
@@ -49609,10 +49609,10 @@
         <v>-1.57323264457911</v>
       </c>
       <c r="X104" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z104" t="s">
         <v>241</v>
@@ -49701,10 +49701,10 @@
         <v>-0.30865439553248</v>
       </c>
       <c r="X105" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Z105" t="s">
         <v>243</v>
@@ -49793,10 +49793,10 @@
         <v>-0.795296050553575</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z106" t="s">
         <v>245</v>
@@ -49885,10 +49885,10 @@
         <v>1.69683914386666</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z107" t="s">
         <v>247</v>
@@ -49977,10 +49977,10 @@
         <v>-4.06438208930163</v>
       </c>
       <c r="X108" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z108" t="s">
         <v>249</v>
@@ -50069,10 +50069,10 @@
         <v>1.59555957756935</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z109" t="s">
         <v>251</v>
@@ -50161,10 +50161,10 @@
         <v>2.37391071807668</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0784313725490196</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z110" t="s">
         <v>253</v>
@@ -50256,7 +50256,7 @@
         <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z111" t="s">
         <v>472</v>
@@ -50348,7 +50348,7 @@
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z112" t="s">
         <v>474</v>
@@ -50437,10 +50437,10 @@
         <v>-6.03227198288837</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z113" t="s">
         <v>257</v>
@@ -50529,10 +50529,10 @@
         <v>-1.15517958330313</v>
       </c>
       <c r="X114" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z114" t="s">
         <v>259</v>
@@ -50621,7 +50621,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y115" t="n">
         <v>0</v>
@@ -50713,10 +50713,10 @@
         <v>5.89801931615254</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z116" t="s">
         <v>263</v>
@@ -50805,10 +50805,10 @@
         <v>-1.93917922267964</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z117" t="s">
         <v>265</v>
@@ -50897,10 +50897,10 @@
         <v>-0.108421302474904</v>
       </c>
       <c r="X118" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Z118" t="s">
         <v>267</v>
@@ -50989,10 +50989,10 @@
         <v>1.35361782558873</v>
       </c>
       <c r="X119" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Z119" t="s">
         <v>269</v>
@@ -51081,10 +51081,10 @@
         <v>-1.08718171450711</v>
       </c>
       <c r="X120" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z120" t="s">
         <v>271</v>
@@ -51173,10 +51173,10 @@
         <v>-6.35058747182959</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z121" t="s">
         <v>273</v>
@@ -51268,7 +51268,7 @@
         <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z122" t="s">
         <v>476</v>
@@ -51357,10 +51357,10 @@
         <v>1.98680571460605</v>
       </c>
       <c r="X123" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z123" t="s">
         <v>275</v>
@@ -51452,7 +51452,7 @@
         <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z124" t="s">
         <v>478</v>
@@ -51541,10 +51541,10 @@
         <v>-0.613770659942249</v>
       </c>
       <c r="X125" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -51633,10 +51633,10 @@
         <v>2.10903976278586</v>
       </c>
       <c r="X126" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -51725,10 +51725,10 @@
         <v>0.446926342164253</v>
       </c>
       <c r="X127" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -51817,10 +51817,10 @@
         <v>-0.700080284235653</v>
       </c>
       <c r="X128" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -51909,10 +51909,10 @@
         <v>-0.591232617307996</v>
       </c>
       <c r="X129" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -52001,10 +52001,10 @@
         <v>-2.04927330402926</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -52093,10 +52093,10 @@
         <v>0.506279488814696</v>
       </c>
       <c r="X131" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -52185,10 +52185,10 @@
         <v>0.302794194020363</v>
       </c>
       <c r="X132" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -52277,10 +52277,10 @@
         <v>-2.22244072907111</v>
       </c>
       <c r="X133" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -52372,7 +52372,7 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z134" t="s">
         <v>480</v>
@@ -52464,7 +52464,7 @@
         <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z135" t="s">
         <v>482</v>
@@ -52553,10 +52553,10 @@
         <v>3.22968396195084</v>
       </c>
       <c r="X136" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z136" t="s">
         <v>484</v>
@@ -52648,7 +52648,7 @@
         <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z137" t="s">
         <v>297</v>
@@ -52737,10 +52737,10 @@
         <v>-2.51196619721281</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z138" t="s">
         <v>301</v>
@@ -52829,10 +52829,10 @@
         <v>-0.476000171084646</v>
       </c>
       <c r="X139" t="n">
-        <v>0.156862745098039</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0931372549019608</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z139" t="s">
         <v>303</v>
@@ -52924,7 +52924,7 @@
         <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z140" t="s">
         <v>486</v>
@@ -53013,10 +53013,10 @@
         <v>3.52077349006592</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0343137254901961</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="Z141" t="s">
         <v>305</v>
@@ -53105,10 +53105,10 @@
         <v>-1.99724212398755</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z142" t="s">
         <v>307</v>
@@ -53197,10 +53197,10 @@
         <v>5.95493629786905</v>
       </c>
       <c r="X143" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z143" t="s">
         <v>488</v>
@@ -53292,7 +53292,7 @@
         <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z144" t="s">
         <v>490</v>
@@ -53381,10 +53381,10 @@
         <v>1.14242900501348</v>
       </c>
       <c r="X145" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z145" t="s">
         <v>492</v>
@@ -53473,10 +53473,10 @@
         <v>1.41085262815414</v>
       </c>
       <c r="X146" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z146" t="s">
         <v>494</v>
@@ -53565,10 +53565,10 @@
         <v>-0.232112232261142</v>
       </c>
       <c r="X147" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z147" t="s">
         <v>311</v>
@@ -53657,10 +53657,10 @@
         <v>-0.107441452689228</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z148" t="s">
         <v>315</v>
@@ -53749,10 +53749,10 @@
         <v>-0.596421907234851</v>
       </c>
       <c r="X149" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0784313725490196</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Z149" t="s">
         <v>319</v>
@@ -53841,10 +53841,10 @@
         <v>0.88919825448443</v>
       </c>
       <c r="X150" t="n">
-        <v>0.102941176470588</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.0784313725490196</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Z150" t="s">
         <v>321</v>
@@ -53933,10 +53933,10 @@
         <v>0.555305358799615</v>
       </c>
       <c r="X151" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z151" t="s">
         <v>323</v>
@@ -54025,10 +54025,10 @@
         <v>-2.54861263257737</v>
       </c>
       <c r="X152" t="n">
-        <v>0.142156862745098</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Z152" t="s">
         <v>325</v>
@@ -54120,7 +54120,7 @@
         <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z153" t="s">
         <v>496</v>
@@ -54209,10 +54209,10 @@
         <v>-1.84374592863395</v>
       </c>
       <c r="X154" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z154" t="s">
         <v>327</v>
@@ -54301,10 +54301,10 @@
         <v>-0.147000894256784</v>
       </c>
       <c r="X155" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z155" t="s">
         <v>329</v>
@@ -54393,7 +54393,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y156" t="n">
         <v>0</v>
@@ -54485,10 +54485,10 @@
         <v>-0.168129012870211</v>
       </c>
       <c r="X157" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z157" t="s">
         <v>333</v>
@@ -54577,10 +54577,10 @@
         <v>-1.01081694315858</v>
       </c>
       <c r="X158" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z158" t="s">
         <v>335</v>
@@ -54669,10 +54669,10 @@
         <v>-0.429132304840682</v>
       </c>
       <c r="X159" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z159" t="s">
         <v>337</v>
@@ -54761,10 +54761,10 @@
         <v>-0.0540165498754871</v>
       </c>
       <c r="X160" t="n">
-        <v>0.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Z160" t="s">
         <v>339</v>
@@ -54853,10 +54853,10 @@
         <v>-0.733443694003848</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z161" t="s">
         <v>341</v>
@@ -54948,7 +54948,7 @@
         <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z162" t="s">
         <v>343</v>
@@ -55037,10 +55037,10 @@
         <v>-1.69990294862784</v>
       </c>
       <c r="X163" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="Z163" t="s">
         <v>345</v>
@@ -55129,10 +55129,10 @@
         <v>2.6596889738981</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z164" t="s">
         <v>347</v>
@@ -55221,10 +55221,10 @@
         <v>0.0307644720414642</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z165" t="s">
         <v>349</v>
@@ -55313,7 +55313,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y166" t="n">
         <v>0</v>
@@ -55405,10 +55405,10 @@
         <v>-0.995460514717978</v>
       </c>
       <c r="X167" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Z167" t="s">
         <v>355</v>
@@ -55497,10 +55497,10 @@
         <v>-0.0915227402617974</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z168" t="s">
         <v>357</v>
@@ -55589,10 +55589,10 @@
         <v>1.82917639698868</v>
       </c>
       <c r="X169" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z169" t="s">
         <v>498</v>
@@ -55681,10 +55681,10 @@
         <v>3.81005622680417</v>
       </c>
       <c r="X170" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z170" t="s">
         <v>359</v>
@@ -55773,10 +55773,10 @@
         <v>2.05623898229437</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z171" t="s">
         <v>361</v>
@@ -55865,10 +55865,10 @@
         <v>-1.13666395631497</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z172" t="s">
         <v>363</v>
@@ -55957,10 +55957,10 @@
         <v>-2.72345223526443</v>
       </c>
       <c r="X173" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z173" t="s">
         <v>371</v>
@@ -56049,10 +56049,10 @@
         <v>2.40300227607289</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Z174" t="s">
         <v>373</v>
@@ -56144,7 +56144,7 @@
         <v>0</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z175" t="s">
         <v>377</v>
@@ -56233,10 +56233,10 @@
         <v>-0.658209065651197</v>
       </c>
       <c r="X176" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z176" t="s">
         <v>379</v>
@@ -56325,7 +56325,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X177" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y177" t="n">
         <v>0</v>
@@ -56417,10 +56417,10 @@
         <v>-5.59073718420739</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z178" t="s">
         <v>383</v>
@@ -56509,10 +56509,10 @@
         <v>1.82507417924473</v>
       </c>
       <c r="X179" t="n">
-        <v>0.17156862745098</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z179" t="s">
         <v>385</v>
@@ -56601,10 +56601,10 @@
         <v>1.531534557661</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z180" t="s">
         <v>387</v>
@@ -56693,10 +56693,10 @@
         <v>-0.323351143728134</v>
       </c>
       <c r="X181" t="n">
-        <v>0.147058823529412</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.0931372549019608</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z181" t="s">
         <v>389</v>
@@ -56788,7 +56788,7 @@
         <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z182" t="s">
         <v>500</v>
@@ -56877,10 +56877,10 @@
         <v>0.76860559023421</v>
       </c>
       <c r="X183" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z183" t="s">
         <v>391</v>
@@ -56969,10 +56969,10 @@
         <v>-1.99939615737281</v>
       </c>
       <c r="X184" t="n">
-        <v>0.0931372549019608</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z184" t="s">
         <v>393</v>
@@ -57061,10 +57061,10 @@
         <v>-3.32415299387553</v>
       </c>
       <c r="X185" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z185" t="s">
         <v>397</v>
@@ -57153,10 +57153,10 @@
         <v>-2.7085726606762</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z186" t="s">
         <v>399</v>
@@ -57248,7 +57248,7 @@
         <v>0</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z187" t="s">
         <v>502</v>
@@ -57337,10 +57337,10 @@
         <v>2.56476132426739</v>
       </c>
       <c r="X188" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Z188" t="s">
         <v>401</v>
@@ -57429,10 +57429,10 @@
         <v>2.01334593332939</v>
       </c>
       <c r="X189" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.142156862745098</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="Z189" t="s">
         <v>403</v>
@@ -57521,10 +57521,10 @@
         <v>-2.01784266668758</v>
       </c>
       <c r="X190" t="n">
-        <v>0.132352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.112745098039216</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="Z190" t="s">
         <v>405</v>
@@ -57613,10 +57613,10 @@
         <v>-5.1621401007077</v>
       </c>
       <c r="X191" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z191" t="s">
         <v>407</v>
@@ -57705,10 +57705,10 @@
         <v>-7.76697149239646</v>
       </c>
       <c r="X192" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z192" t="s">
         <v>409</v>
@@ -57797,10 +57797,10 @@
         <v>-1.65857242137543</v>
       </c>
       <c r="X193" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.00980392156862745</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Z193" t="s">
         <v>411</v>
@@ -57889,10 +57889,10 @@
         <v>-6.25675597939307</v>
       </c>
       <c r="X194" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Z194" t="s">
         <v>415</v>
@@ -57981,10 +57981,10 @@
         <v>0.266147369700538</v>
       </c>
       <c r="X195" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Z195" t="s">
         <v>417</v>
@@ -58073,10 +58073,10 @@
         <v>-1.75409179829971</v>
       </c>
       <c r="X196" t="n">
-        <v>0.0490196078431373</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z196" t="s">
         <v>419</v>
@@ -58165,10 +58165,10 @@
         <v>-0.0173872878172012</v>
       </c>
       <c r="X197" t="n">
-        <v>0.107843137254902</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="Z197" t="s">
         <v>421</v>
@@ -58257,10 +58257,10 @@
         <v>-0.289552853672573</v>
       </c>
       <c r="X198" t="n">
-        <v>0.0441176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z198" t="s">
         <v>423</v>
@@ -58349,10 +58349,10 @@
         <v>0.163931920085582</v>
       </c>
       <c r="X199" t="n">
-        <v>0.166666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.0931372549019608</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Z199" t="s">
         <v>425</v>
@@ -58441,10 +58441,10 @@
         <v>0.331002271702348</v>
       </c>
       <c r="X200" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.122549019607843</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="Z200" t="s">
         <v>427</v>
@@ -58533,10 +58533,10 @@
         <v>-1.5738846862605</v>
       </c>
       <c r="X201" t="n">
-        <v>0.161764705882353</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.0735294117647059</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z201" t="s">
         <v>429</v>
@@ -58625,10 +58625,10 @@
         <v>-2.78919750641591</v>
       </c>
       <c r="X202" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Z202" t="s">
         <v>431</v>
@@ -58717,10 +58717,10 @@
         <v>-2.814164873178</v>
       </c>
       <c r="X203" t="n">
-        <v>0.053921568627451</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z203" t="s">
         <v>433</v>
@@ -58809,10 +58809,10 @@
         <v>-1.88359211702742</v>
       </c>
       <c r="X204" t="n">
-        <v>0.0686274509803922</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.0245098039215686</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="Z204" t="s">
         <v>435</v>
@@ -58901,10 +58901,10 @@
         <v>2.27790607170478</v>
       </c>
       <c r="X205" t="n">
-        <v>0.117647058823529</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.151960784313725</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="Z205" t="s">
         <v>439</v>
